--- a/Reports/PassportOffice/InOut/InOut.xlsx
+++ b/Reports/PassportOffice/InOut/InOut.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Block</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Block5</t>
   </si>
   <si>
-    <t>Шапка отчета</t>
-  </si>
-  <si>
     <t>$t1['m_NN']</t>
   </si>
   <si>
@@ -131,13 +128,28 @@
   </si>
   <si>
     <t>Состав прописанных</t>
+  </si>
+  <si>
+    <t>"Рееср движения населения за ".$this-&gt;H['full_name_month']</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['name_organization']</t>
+  </si>
+  <si>
+    <t>Block6</t>
+  </si>
+  <si>
+    <t>"Представилель паспортного стола ".$this-&gt;H['name_organization']</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['fam']." " .$this-&gt;H['im']." " .$this-&gt;H['ot']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -213,6 +225,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -240,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -516,6 +538,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,60 +583,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,60 +700,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -971,10 +1011,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1018,7 +1058,9 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1034,122 +1076,122 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:25" ht="55.5" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
       <c r="N3" s="8"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="8"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="8"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="47.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="D6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="G6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="H6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="K6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
       <c r="W6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1157,148 +1199,194 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="18" customFormat="1" ht="4.5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17" t="s">
+    <row r="7" spans="1:25" s="17" customFormat="1" ht="4.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>1</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="23" customFormat="1">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:25" s="22" customFormat="1" ht="63">
+      <c r="A8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="H8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="I8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="K8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="L8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="P8" s="24" t="s">
+      <c r="N8" s="21"/>
+      <c r="P8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="23">
         <v>1</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="W8" s="24" t="s">
+      <c r="T8" s="24"/>
+      <c r="W8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Y8" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="18" customFormat="1" ht="4.5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="19"/>
-      <c r="P9" s="20" t="s">
+    <row r="9" spans="1:25" s="17" customFormat="1" ht="4.5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="18"/>
+      <c r="P9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>1</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="W9" s="20" t="s">
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="W9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1">
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>0</v>
       </c>
-      <c r="S10" s="14"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" s="52" customFormat="1">
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="P11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="53">
+        <v>7</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="49"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="17" spans="23:24">
+      <c r="W17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="53" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Reports/PassportOffice/InOut/InOut.xlsx
+++ b/Reports/PassportOffice/InOut/InOut.xlsx
@@ -643,9 +643,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -668,36 +665,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -709,6 +676,39 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1013,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5"/>
@@ -1076,21 +1076,21 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:25" ht="55.5" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="8"/>
       <c r="O3" s="3"/>
       <c r="P3" s="9"/>
@@ -1120,31 +1120,31 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="45" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="8"/>
       <c r="O5" s="3"/>
       <c r="P5" s="9"/>
@@ -1153,37 +1153,37 @@
       <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="47.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="35" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="10"/>
@@ -1230,44 +1230,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="22" customFormat="1" ht="63">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:25" s="22" customFormat="1" ht="31.5">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="30" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="21"/>
@@ -1295,19 +1295,19 @@
       </c>
     </row>
     <row r="9" spans="1:25" s="17" customFormat="1" ht="4.5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>0</v>
@@ -1342,49 +1342,49 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:25" s="52" customFormat="1">
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="P11" s="53" t="s">
+    <row r="11" spans="1:25" s="41" customFormat="1">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="P11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="42">
         <v>7</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="38"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="17" spans="23:24">
-      <c r="W17" s="53" t="s">
+      <c r="W17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="X17" s="53" t="s">
+      <c r="X17" s="42" t="s">
         <v>39</v>
       </c>
     </row>
